--- a/biology/Médecine/Franck_Nouchi/Franck_Nouchi.xlsx
+++ b/biology/Médecine/Franck_Nouchi/Franck_Nouchi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Franck Nouchi, né le 29 décembre 1956 à Oran[1] (Algérie), est un journaliste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Franck Nouchi, né le 29 décembre 1956 à Oran (Algérie), est un journaliste français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après une formation en médecine, il couvre l'actualité médicale pour le journal Le Monde entre 1985 et 1994. Il est le premier, dès 1983, à avoir alerté sur le risque transfusionnel chez les hémophiles. En 1991, avec d’autres journalistes, il contribue à la mise au jour de nombreux dysfonctionnements dans l’affaire du sang contaminé. Il a également contribué à établir le fait que le virus du sida avait été découvert en France, à l’Institut Pasteur, et non pas aux États-Unis, par Luc Montagnier[2]. 
-Il est ensuite promu chef du service Société, puis rédacteur en chef jusqu'en 1999. En 2000, il devient directeur des Cahiers du cinéma, et président du directoire des Éditions de l'Étoile. En 2003, il est nommé directeur adjoint de la rédaction du Monde aux côtés d'Edwy Plenel. Il a aussi été directeur du Monde des Livres de 2005 à 2007, puis il a dirigé Le Monde 2, le magazine du Monde. Il rejoint ensuite la rédaction en chef du Monde, où il publie chaque jour une chronique. En 2013, il se propose à la succession d'Érik Izraelewicz à la direction du journal[3]. En 2014, il impulse la création du Monde Festival, auquel il participe maintenant chaque année. Après avoir été le médiateur de ce quotidien, il devient en novembre 2019 rédacteur en chef des pages Idées-Débats.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après une formation en médecine, il couvre l'actualité médicale pour le journal Le Monde entre 1985 et 1994. Il est le premier, dès 1983, à avoir alerté sur le risque transfusionnel chez les hémophiles. En 1991, avec d’autres journalistes, il contribue à la mise au jour de nombreux dysfonctionnements dans l’affaire du sang contaminé. Il a également contribué à établir le fait que le virus du sida avait été découvert en France, à l’Institut Pasteur, et non pas aux États-Unis, par Luc Montagnier. 
+Il est ensuite promu chef du service Société, puis rédacteur en chef jusqu'en 1999. En 2000, il devient directeur des Cahiers du cinéma, et président du directoire des Éditions de l'Étoile. En 2003, il est nommé directeur adjoint de la rédaction du Monde aux côtés d'Edwy Plenel. Il a aussi été directeur du Monde des Livres de 2005 à 2007, puis il a dirigé Le Monde 2, le magazine du Monde. Il rejoint ensuite la rédaction en chef du Monde, où il publie chaque jour une chronique. En 2013, il se propose à la succession d'Érik Izraelewicz à la direction du journal. En 2014, il impulse la création du Monde Festival, auquel il participe maintenant chaque année. Après avoir été le médiateur de ce quotidien, il devient en novembre 2019 rédacteur en chef des pages Idées-Débats.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Ouvrage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Franck Nouchi, Le cerveau de Voltaire, Paris, Flammarion, 2012, 221 p. (ISBN 978-2-08-125760-3)</t>
         </is>
